--- a/health inequalities and turnout-public.xlsx
+++ b/health inequalities and turnout-public.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\areeves\Dropbox\Political determinants of health\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\areeves\Dropbox\Political determinants of health\Final\Replication\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,8 +590,7 @@
         <v>8192.8799999999992</v>
       </c>
       <c r="K2">
-        <f>J2-I2</f>
-        <v>8200.58</v>
+        <v>4.5499999999999972</v>
       </c>
       <c r="L2">
         <v>31300</v>
@@ -659,8 +658,7 @@
         <v>10379.07</v>
       </c>
       <c r="K3">
-        <f>J3-I3</f>
-        <v>10387.969999999999</v>
+        <v>11.72999999999999</v>
       </c>
       <c r="L3">
         <v>30200</v>
@@ -728,8 +726,7 @@
         <v>10234.450000000001</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K22" si="0">J4-I4</f>
-        <v>10243.950000000001</v>
+        <v>29.36</v>
       </c>
       <c r="L4">
         <v>11500</v>
@@ -797,8 +794,7 @@
         <v>5450.66</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
-        <v>5455.76</v>
+        <v>11.489999999999995</v>
       </c>
       <c r="L5">
         <v>40200</v>
@@ -866,8 +862,7 @@
         <v>60846.81</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
-        <v>60855.909999999996</v>
+        <v>11.969999999999999</v>
       </c>
       <c r="L6">
         <v>32700</v>
@@ -935,8 +930,7 @@
         <v>1324.33</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
-        <v>1329.23</v>
+        <v>24.730000000000004</v>
       </c>
       <c r="L7">
         <v>10000</v>
@@ -1004,8 +998,7 @@
         <v>523.37</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
-        <v>525.27</v>
+        <v>22.569999999999993</v>
       </c>
       <c r="L8">
         <v>31500</v>
@@ -1073,8 +1066,7 @@
         <v>63292.51</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
-        <v>63288.41</v>
+        <v>11.829999999999998</v>
       </c>
       <c r="L9">
         <v>28400</v>
@@ -1142,8 +1134,7 @@
         <v>10046.27</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
-        <v>10055.07</v>
+        <v>14.739999999999995</v>
       </c>
       <c r="L10">
         <v>8900</v>
@@ -1211,8 +1202,7 @@
         <v>4309.0200000000004</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
-        <v>4315.0200000000004</v>
+        <v>-2.6899999999999977</v>
       </c>
       <c r="L11">
         <v>41600</v>
@@ -1250,8 +1240,7 @@
         <v>59272.88</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
-        <v>59270.079999999994</v>
+        <v>12.799999999999997</v>
       </c>
       <c r="L12">
         <v>25300</v>
@@ -1319,8 +1308,7 @@
         <v>2274.7399999999998</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
-        <v>2275.7399999999998</v>
+        <v>18.11</v>
       </c>
       <c r="L13">
         <v>7200</v>
@@ -1358,8 +1346,7 @@
         <v>3585.91</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
-        <v>3580.0099999999998</v>
+        <v>20.93</v>
       </c>
       <c r="L14">
         <v>7400</v>
@@ -1427,8 +1414,7 @@
         <v>16491.46</v>
       </c>
       <c r="K15">
-        <f t="shared" si="0"/>
-        <v>16499.559999999998</v>
+        <v>13.300000000000011</v>
       </c>
       <c r="L15">
         <v>33100</v>
@@ -1466,8 +1452,7 @@
         <v>4610.82</v>
       </c>
       <c r="K16">
-        <f t="shared" si="0"/>
-        <v>4624.32</v>
+        <v>19.190000000000012</v>
       </c>
       <c r="L16">
         <v>58100</v>
@@ -1535,8 +1520,7 @@
         <v>38536.870000000003</v>
       </c>
       <c r="K17">
-        <f t="shared" si="0"/>
-        <v>38537.670000000006</v>
+        <v>26.729999999999997</v>
       </c>
       <c r="L17">
         <v>7100</v>
@@ -1604,8 +1588,7 @@
         <v>10605.87</v>
       </c>
       <c r="K18">
-        <f t="shared" si="0"/>
-        <v>10598.570000000002</v>
+        <v>11.979999999999997</v>
       </c>
       <c r="L18">
         <v>15200</v>
@@ -1643,8 +1626,7 @@
         <v>2010.35</v>
       </c>
       <c r="K19">
-        <f t="shared" si="0"/>
-        <v>2007.9499999999998</v>
+        <v>17.159999999999997</v>
       </c>
       <c r="L19">
         <v>15500</v>
@@ -1712,8 +1694,7 @@
         <v>44431.75</v>
       </c>
       <c r="K20">
-        <f t="shared" si="0"/>
-        <v>44426.35</v>
+        <v>14.350000000000009</v>
       </c>
       <c r="L20">
         <v>22400</v>
@@ -1781,8 +1762,7 @@
         <v>9016.6</v>
       </c>
       <c r="K21">
-        <f t="shared" si="0"/>
-        <v>9027.2000000000007</v>
+        <v>15.719999999999999</v>
       </c>
       <c r="L21">
         <v>3500</v>
@@ -1850,8 +1830,7 @@
         <v>7523.93</v>
       </c>
       <c r="K22">
-        <f t="shared" si="0"/>
-        <v>7536.93</v>
+        <v>19.530000000000008</v>
       </c>
       <c r="L22">
         <v>42700</v>
